--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -1,62 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView windowWidth="23040" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>login table</t>
   </si>
   <si>
-    <t>username</t>
+    <t>column name</t>
+  </si>
+  <si>
+    <t>data type</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>login_id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>primary key,AI</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>varchar(18)</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>data type</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>column name</t>
-  </si>
-  <si>
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>primary key</t>
-  </si>
-  <si>
     <t>student table</t>
   </si>
   <si>
+    <t>foreign key</t>
+  </si>
+  <si>
     <t>firstname</t>
   </si>
   <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
     <t>lastname</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>badges</t>
   </si>
   <si>
@@ -70,21 +85,6 @@
   </si>
   <si>
     <t>attended courses</t>
-  </si>
-  <si>
-    <t>varchar(18)</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>foreign key</t>
   </si>
   <si>
     <t>content table</t>
@@ -124,12 +124,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,19 +143,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -159,11 +502,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -172,7 +515,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -180,17 +523,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -200,7 +543,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -208,12 +551,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,26 +580,268 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,13 +860,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -549,23 +1205,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="12.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -577,142 +1233,153 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
+      <c r="D13" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="16"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
@@ -723,189 +1390,225 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>22</v>
+      <c r="D27" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="1" t="s">
+      <c r="C32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="C39" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="7" t="s">
+      <c r="D39" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="C49" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="7" t="s">
+      <c r="D49" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="10" t="s">
+      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="12"/>
+      <c r="C52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>login table</t>
   </si>
@@ -60,27 +60,36 @@
     <t>student table</t>
   </si>
   <si>
+    <t>tests table</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
     <t>foreign key</t>
   </si>
   <si>
+    <t>content id</t>
+  </si>
+  <si>
+    <t>test attended</t>
+  </si>
+  <si>
     <t>firstname</t>
   </si>
   <si>
     <t>varchar(15)</t>
   </si>
   <si>
+    <t>marks</t>
+  </si>
+  <si>
     <t>lastname</t>
   </si>
   <si>
     <t>badges</t>
   </si>
   <si>
-    <t xml:space="preserve">tests attended </t>
-  </si>
-  <si>
-    <t>marks</t>
-  </si>
-  <si>
     <t>phone number</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
   </si>
   <si>
     <t>content table</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
   <si>
     <t>content given by teachers</t>
@@ -126,11 +138,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,37 +174,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,25 +222,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,59 +281,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -307,31 +312,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,133 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +610,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -620,41 +664,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +692,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -696,152 +701,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,6 +870,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,17 +1220,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:D52"/>
+  <dimension ref="B3:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12.287037037037" customWidth="1"/>
     <col min="4" max="4" width="12.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -1280,14 +1290,19 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:12">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="J11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1297,57 +1312,79 @@
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="12" t="s">
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9"/>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>5</v>
@@ -1355,64 +1392,69 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="H23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>8</v>
@@ -1421,7 +1463,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>8</v>
@@ -1429,151 +1471,135 @@
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="D30" s="16"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="4" t="s">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="12" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="7" t="s">
+      <c r="D47" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="16"/>
+      <c r="D50" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
-  <si>
-    <t>login table</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>column name</t>
   </si>
@@ -30,9 +28,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>login_id</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -48,42 +43,18 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>student table</t>
-  </si>
-  <si>
-    <t>tests table</t>
-  </si>
-  <si>
     <t>test id</t>
   </si>
   <si>
-    <t>foreign key</t>
-  </si>
-  <si>
     <t>content id</t>
   </si>
   <si>
-    <t>test attended</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
     <t>varchar(15)</t>
   </si>
   <si>
-    <t>marks</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>badges</t>
   </si>
   <si>
@@ -96,58 +67,186 @@
     <t>content table</t>
   </si>
   <si>
-    <t>content given by teachers</t>
-  </si>
-  <si>
-    <t>content given to inspector</t>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>content developer</t>
+  </si>
+  <si>
+    <t>inspector</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>content_id</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>payment id</t>
+  </si>
+  <si>
+    <t>inspector_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>student details</t>
+  </si>
+  <si>
+    <t>student log</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>composite key</t>
   </si>
   <si>
     <t>feedback</t>
   </si>
   <si>
-    <t>requests</t>
-  </si>
-  <si>
-    <t>content developer</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t>contents</t>
-  </si>
-  <si>
-    <t>inspector</t>
-  </si>
-  <si>
-    <t>approved</t>
-  </si>
-  <si>
-    <t>rejected</t>
-  </si>
-  <si>
-    <t>primary key, auto increment</t>
-  </si>
-  <si>
-    <t>Feedback&amp;requests</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
+    <t>content name</t>
+  </si>
+  <si>
+    <t>area of expertise</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>developer id</t>
+  </si>
+  <si>
+    <t>qualification document</t>
+  </si>
+  <si>
+    <t>admin aproved</t>
+  </si>
+  <si>
+    <t>transaction number</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>contend id</t>
+  </si>
+  <si>
+    <t>transaction date</t>
+  </si>
+  <si>
+    <t>paid to</t>
+  </si>
+  <si>
+    <t>option a</t>
+  </si>
+  <si>
+    <t>option b</t>
+  </si>
+  <si>
+    <t>option c</t>
+  </si>
+  <si>
+    <t>option d</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>answer option</t>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>learning level</t>
+  </si>
+  <si>
+    <t>content depth</t>
+  </si>
+  <si>
+    <t>inspector approved</t>
+  </si>
+  <si>
+    <t>keyword1</t>
+  </si>
+  <si>
+    <t>keyword2</t>
+  </si>
+  <si>
+    <t>keyword 3</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>gold silver bronze</t>
+  </si>
+  <si>
+    <t>suggestion</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dificulty level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,6 +268,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,50 +386,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,17 +730,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J47"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -636,36 +761,47 @@
     <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10">
+      <c r="H2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+    </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="H3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>3</v>
+      <c r="H4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -675,14 +811,18 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="4" t="s">
@@ -692,356 +832,540 @@
         <v>7</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="H6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="H7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="H9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="H10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="H13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D14" s="6"/>
       <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="3" t="s">
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="H15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="H16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="4" t="s">
+      <c r="D17" s="10"/>
+      <c r="H17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="H18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="H19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="H23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="H26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="H27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="H28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="H29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="H32" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="H37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="H38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="H39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="H40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="10"/>
+      <c r="H41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="H42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="H15" s="23" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="H16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="H17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="H22" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="12"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="H22:J22"/>
+  <mergeCells count="9">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1055,4 +1379,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="83">
   <si>
     <t>column name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>phone number</t>
   </si>
   <si>
-    <t>attended courses</t>
-  </si>
-  <si>
     <t>content table</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>primary key</t>
   </si>
   <si>
-    <t>payment id</t>
-  </si>
-  <si>
     <t>inspector_id</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>tests</t>
   </si>
   <si>
-    <t>composite key</t>
-  </si>
-  <si>
     <t>feedback</t>
   </si>
   <si>
@@ -154,15 +145,9 @@
     <t>request</t>
   </si>
   <si>
-    <t>contend id</t>
-  </si>
-  <si>
     <t>transaction date</t>
   </si>
   <si>
-    <t>paid to</t>
-  </si>
-  <si>
     <t>option a</t>
   </si>
   <si>
@@ -190,24 +175,12 @@
     <t>age</t>
   </si>
   <si>
-    <t>learning level</t>
-  </si>
-  <si>
     <t>content depth</t>
   </si>
   <si>
     <t>inspector approved</t>
   </si>
   <si>
-    <t>keyword1</t>
-  </si>
-  <si>
-    <t>keyword2</t>
-  </si>
-  <si>
-    <t>keyword 3</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -221,18 +194,111 @@
   </si>
   <si>
     <t>dificulty level</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>keyword id</t>
+  </si>
+  <si>
+    <t>content keyword</t>
+  </si>
+  <si>
+    <t>inspector expertise</t>
+  </si>
+  <si>
+    <t>expertise id</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>inspector id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>people viewed</t>
+  </si>
+  <si>
+    <t>watch time</t>
+  </si>
+  <si>
+    <t>transaction amount</t>
+  </si>
+  <si>
+    <t>approvals</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>test number</t>
+  </si>
+  <si>
+    <t>composite primary key</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>paused time</t>
+  </si>
+  <si>
+    <t>test attended</t>
+  </si>
+  <si>
+    <t>date(paid for course on)</t>
+  </si>
+  <si>
+    <t>inspector feedback</t>
+  </si>
+  <si>
+    <t>stud feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,6 +347,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,11 +481,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -398,39 +493,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,38 +891,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J50"/>
+  <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="3" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="H2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="29" t="s">
+    <row r="2" spans="2:11">
+      <c r="H2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,95 +947,89 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="J4" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
+      <c r="D6" s="10"/>
+      <c r="H6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>3</v>
       </c>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="25"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="H7" s="18" t="s">
-        <v>9</v>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="23"/>
+      <c r="H7" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10">
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>64</v>
+    <row r="8" spans="2:11">
+      <c r="H8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10">
-      <c r="H9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="5"/>
+    <row r="9" spans="2:11">
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="H10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:11">
+      <c r="B10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="H10" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,143 +1039,136 @@
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="18" t="s">
-        <v>25</v>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="H13" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="H15" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="H14" s="1" t="s">
+      <c r="D16" s="6"/>
+      <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="H15" s="18" t="s">
+    <row r="17" spans="1:10">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="H17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="H16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="H17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="H18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="16" t="s">
+      <c r="J17" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="H18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="H19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="H19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="H23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="I19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="H23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,135 +1178,157 @@
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>9</v>
+      <c r="H24" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="18" t="s">
+      <c r="I25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="H26" s="18" t="s">
-        <v>52</v>
+      <c r="H26" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="18" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="H28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="H29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="H31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="H28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="10"/>
-      <c r="H29" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="16" t="s">
+      <c r="I31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="H32" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="H32" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="10"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="1" t="s">
@@ -1178,21 +1340,21 @@
       <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="H35" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>22</v>
+      <c r="B36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
@@ -1212,25 +1374,25 @@
         <v>5</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="H37" s="15" t="s">
-        <v>23</v>
+      <c r="H37" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>22</v>
+      <c r="J37" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="18" t="s">
-        <v>41</v>
+      <c r="B38" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -1239,64 +1401,59 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>54</v>
+      <c r="I39" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="H40" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="H40" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>5</v>
+      <c r="I40" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="20"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="10"/>
-      <c r="H41" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>8</v>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="H41" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="H42" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="10"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="1" t="s">
@@ -1308,16 +1465,30 @@
       <c r="D45" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="H45" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>22</v>
+      <c r="D46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:10">
@@ -1328,41 +1499,408 @@
         <v>5</v>
       </c>
       <c r="D47" s="6"/>
+      <c r="H47" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="H48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4"/>
+      <c r="D50" s="6"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="53"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="H53" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="28"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="H56" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="I56" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="24"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="24"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="24"/>
+      <c r="H60" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="50"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
+      <c r="H61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="45"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="H64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="H65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="H72" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="D73" s="10"/>
+      <c r="H73" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="H74" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="H77" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77" s="42"/>
+      <c r="J77" s="43"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="H78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="J79" s="55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="37"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="37"/>
+      <c r="H81" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="25">
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B44:D44"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="J62:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
   <si>
     <t>column name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
@@ -205,79 +202,142 @@
     <t>keyword id</t>
   </si>
   <si>
+    <t>inspector expertise</t>
+  </si>
+  <si>
+    <t>expertise id</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>inspector id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>people viewed</t>
+  </si>
+  <si>
+    <t>watch time</t>
+  </si>
+  <si>
+    <t>transaction amount</t>
+  </si>
+  <si>
+    <t>approvals</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>test number</t>
+  </si>
+  <si>
+    <t>composite primary key</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>paused time</t>
+  </si>
+  <si>
+    <t>test attended</t>
+  </si>
+  <si>
+    <t>date(paid for course on)</t>
+  </si>
+  <si>
+    <t>inspector feedback</t>
+  </si>
+  <si>
+    <t>content length</t>
+  </si>
+  <si>
+    <t>student feedback</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>topics</t>
+  </si>
+  <si>
+    <t>topic name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>last login</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
     <t>content keyword</t>
-  </si>
-  <si>
-    <t>inspector expertise</t>
-  </si>
-  <si>
-    <t>expertise id</t>
-  </si>
-  <si>
-    <t>blacklist</t>
-  </si>
-  <si>
-    <t>inspector id</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>people viewed</t>
-  </si>
-  <si>
-    <t>watch time</t>
-  </si>
-  <si>
-    <t>transaction amount</t>
-  </si>
-  <si>
-    <t>approvals</t>
-  </si>
-  <si>
-    <t>approved</t>
-  </si>
-  <si>
-    <t>test number</t>
-  </si>
-  <si>
-    <t>composite primary key</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>foreign key</t>
-  </si>
-  <si>
-    <t>paused time</t>
-  </si>
-  <si>
-    <t>test attended</t>
-  </si>
-  <si>
-    <t>date(paid for course on)</t>
-  </si>
-  <si>
-    <t>inspector feedback</t>
-  </si>
-  <si>
-    <t>stud feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,11 +541,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -493,74 +553,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,16 +606,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K82"/>
+  <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -915,18 +986,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="H2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1024,7 @@
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -973,8 +1044,8 @@
       <c r="I5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7" t="s">
@@ -987,25 +1058,27 @@
       <c r="H6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="23"/>
-      <c r="H7" s="48" t="s">
-        <v>78</v>
+      <c r="B7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:11">
       <c r="H8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>3</v>
@@ -1013,19 +1086,22 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:11">
+      <c r="H9" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="H10" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -1040,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -1072,7 +1148,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>8</v>
@@ -1081,21 +1157,21 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="H15" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="H15" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>8</v>
@@ -1131,7 +1207,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>3</v>
@@ -1149,24 +1225,27 @@
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="H19" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="21"/>
     </row>
+    <row r="22" spans="1:10">
+      <c r="H22" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+    </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="H23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
@@ -1178,14 +1257,17 @@
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>74</v>
+      <c r="E24" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="J24" s="56" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1204,7 +1286,7 @@
       <c r="I25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="37"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="16" t="s">
@@ -1215,146 +1297,140 @@
       </c>
       <c r="D26" s="6"/>
       <c r="H26" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="37"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6"/>
       <c r="H27" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="6"/>
       <c r="H28" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="6"/>
       <c r="H29" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>61</v>
-      </c>
       <c r="C30" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="H30" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="10"/>
       <c r="H31" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="H32" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="10"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="36" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="H35" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
@@ -1367,15 +1443,17 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="B37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="H37" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>5</v>
@@ -1385,8 +1463,8 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="16" t="s">
-        <v>38</v>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -1402,10 +1480,10 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D39" s="6"/>
       <c r="H39" s="14" t="s">
@@ -1417,15 +1495,15 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="H40" s="16" t="s">
-        <v>42</v>
+      <c r="B40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="H40" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>8</v>
@@ -1433,10 +1511,15 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="H41" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>3</v>
@@ -1444,16 +1527,22 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10">
+      <c r="B42" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="1" t="s">
@@ -1465,11 +1554,11 @@
       <c r="D45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+      <c r="H45" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
@@ -1499,8 +1588,8 @@
         <v>5</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="H47" s="27" t="s">
-        <v>61</v>
+      <c r="H47" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>3</v>
@@ -1515,19 +1604,22 @@
       </c>
       <c r="D48" s="6"/>
       <c r="H48" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="6"/>
+      <c r="E49" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="2:10">
@@ -1536,21 +1628,21 @@
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="53"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="H53" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="H53" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="1" t="s">
@@ -1574,25 +1666,27 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="28"/>
+      <c r="J55" s="43" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>8</v>
@@ -1620,18 +1714,18 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="24"/>
-      <c r="H60" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
+      <c r="H60" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="65"/>
+      <c r="J60" s="66"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
+      <c r="B61" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
       <c r="H61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,13 +1749,13 @@
       <c r="H62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="44" t="s">
-        <v>77</v>
+      <c r="J62" s="53" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>11</v>
@@ -1675,18 +1769,18 @@
       <c r="I63" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="45"/>
+      <c r="J63" s="54"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="10"/>
       <c r="H64" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>3</v>
@@ -1698,16 +1792,16 @@
         <v>12</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J65" s="10"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
+      <c r="B69" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="50"/>
+      <c r="D69" s="51"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="1" t="s">
@@ -1719,11 +1813,11 @@
       <c r="D70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
+      <c r="H70" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" s="47"/>
+      <c r="J70" s="48"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="27" t="s">
@@ -1732,8 +1826,8 @@
       <c r="C71" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="52" t="s">
-        <v>75</v>
+      <c r="D71" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>0</v>
@@ -1747,12 +1841,12 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="52"/>
+      <c r="D72" s="57"/>
       <c r="H72" s="16" t="s">
         <v>4</v>
       </c>
@@ -1765,14 +1859,14 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73" s="10"/>
       <c r="H73" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>18</v>
@@ -1781,7 +1875,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="H74" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I74" s="26" t="s">
         <v>3</v>
@@ -1789,18 +1883,18 @@
       <c r="J74" s="10"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="H77" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
+      <c r="H77" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="I77" s="47"/>
+      <c r="J77" s="48"/>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="43"/>
+      <c r="B78" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="47"/>
+      <c r="D78" s="48"/>
       <c r="H78" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1915,7 @@
       <c r="D79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I79" s="5" t="s">
@@ -1839,68 +1933,94 @@
         <v>3</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" s="32" t="s">
         <v>10</v>
       </c>
       <c r="I80" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="37"/>
+      <c r="J80" s="56"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="37"/>
+      <c r="C81" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="56"/>
       <c r="H81" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="37" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="56" t="s">
+      <c r="B82" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="10"/>
     </row>
+    <row r="85" spans="2:10">
+      <c r="H85" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I85" s="47"/>
+      <c r="J85" s="48"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="H86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="H87" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="J62:J63"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="H70:J70"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="J62:J63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>column name</t>
   </si>
@@ -284,18 +284,34 @@
   </si>
   <si>
     <t>content keyword</t>
+  </si>
+  <si>
+    <t>should we add student feedback to student log table</t>
+  </si>
+  <si>
+    <t>suggestion(inspector and contentdev can suggest)</t>
+  </si>
+  <si>
+    <t>only student can request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,11 +557,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -553,48 +569,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,51 +646,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,10 +979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K87"/>
+  <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -986,18 +1003,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1041,7 @@
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="61" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1044,8 +1061,8 @@
       <c r="I5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="62"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7" t="s">
@@ -1062,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="23" t="s">
@@ -1092,11 +1109,11 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
       <c r="H10" s="30" t="s">
         <v>78</v>
       </c>
@@ -1163,11 +1180,14 @@
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="67" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="16" t="s">
@@ -1233,18 +1253,18 @@
       <c r="J19" s="21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:10">
@@ -1266,7 +1286,7 @@
       <c r="I24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="60" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1286,7 +1306,7 @@
       <c r="I25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="56"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="16" t="s">
@@ -1302,7 +1322,7 @@
       <c r="I26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="56"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="16" t="s">
@@ -1410,28 +1430,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+    </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="61" t="s">
+      <c r="H35" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="H35" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
       <c r="H36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,14 +1458,14 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>21</v>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>39</v>
@@ -1463,13 +1478,15 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="B38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="H38" s="16" t="s">
         <v>4</v>
       </c>
@@ -1479,8 +1496,8 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="16" t="s">
-        <v>37</v>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -1496,10 +1513,10 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="6"/>
       <c r="H40" s="42" t="s">
@@ -1511,13 +1528,13 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="10"/>
+      <c r="B41" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="6"/>
       <c r="H41" s="19" t="s">
         <v>69</v>
       </c>
@@ -1527,48 +1544,46 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>53</v>
-      </c>
+      <c r="B42" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="10"/>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="61" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="H45" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="H45" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>0</v>
@@ -1582,12 +1597,14 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="H47" s="41" t="s">
         <v>10</v>
       </c>
@@ -1599,8 +1616,11 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="27" t="s">
-        <v>23</v>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D48" s="6"/>
       <c r="H48" s="22" t="s">
@@ -1611,10 +1631,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="44" t="s">
@@ -1623,37 +1640,37 @@
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="4"/>
+      <c r="B50" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="34"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="4"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="34"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="49" t="s">
+      <c r="H53" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="J53" s="50"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="51"/>
-      <c r="H53" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="47"/>
-      <c r="J53" s="48"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50"/>
       <c r="H54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,14 +1682,14 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>21</v>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>64</v>
@@ -1685,13 +1702,15 @@
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="10"/>
+      <c r="B56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="H56" s="27" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1720,13 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="24"/>
+      <c r="B57" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="10"/>
       <c r="H57" s="22"/>
       <c r="I57" s="26"/>
       <c r="J57" s="10"/>
@@ -1714,18 +1739,14 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="24"/>
-      <c r="H60" s="64" t="s">
+      <c r="H60" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I60" s="65"/>
-      <c r="J60" s="66"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="56"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="24"/>
       <c r="H61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,31 +1758,27 @@
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B62" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
       <c r="H62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="53" t="s">
+      <c r="J62" s="62" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>21</v>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>10</v>
@@ -1769,16 +1786,18 @@
       <c r="I63" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="54"/>
+      <c r="J63" s="63"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="10"/>
+      <c r="B64" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="H64" s="4" t="s">
         <v>72</v>
       </c>
@@ -1788,6 +1807,13 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:10">
+      <c r="B65" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="10"/>
       <c r="H65" s="7" t="s">
         <v>12</v>
       </c>
@@ -1796,38 +1822,27 @@
       </c>
       <c r="J65" s="10"/>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="49" t="s">
+    <row r="70" spans="2:10">
+      <c r="B70" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="51"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="49"/>
+      <c r="D70" s="50"/>
+      <c r="H70" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="52"/>
+      <c r="J70" s="53"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I70" s="47"/>
-      <c r="J70" s="48"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>73</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>0</v>
@@ -1841,12 +1856,14 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="27" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="57"/>
+      <c r="D72" s="65" t="s">
+        <v>73</v>
+      </c>
       <c r="H72" s="16" t="s">
         <v>4</v>
       </c>
@@ -1858,13 +1875,13 @@
       </c>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="10"/>
+      <c r="B73" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="65"/>
       <c r="H73" s="16" t="s">
         <v>55</v>
       </c>
@@ -1874,6 +1891,13 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10">
+      <c r="B74" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="10"/>
       <c r="H74" s="18" t="s">
         <v>56</v>
       </c>
@@ -1883,18 +1907,13 @@
       <c r="J74" s="10"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="H77" s="46" t="s">
+      <c r="H77" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="48"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="48"/>
       <c r="H78" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,34 +1925,30 @@
       </c>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B79" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="49"/>
+      <c r="D79" s="50"/>
       <c r="H79" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="55" t="s">
+      <c r="J79" s="64" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="55" t="s">
-        <v>73</v>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H80" s="32" t="s">
         <v>10</v>
@@ -1941,16 +1956,18 @@
       <c r="I80" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="56"/>
+      <c r="J80" s="60"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="56"/>
+      <c r="B81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>73</v>
+      </c>
       <c r="H81" s="18" t="s">
         <v>32</v>
       </c>
@@ -1960,20 +1977,29 @@
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="60"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C83" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="H85" s="46" t="s">
+      <c r="H85" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="I85" s="47"/>
-      <c r="J85" s="48"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="50"/>
     </row>
     <row r="86" spans="2:10">
       <c r="H86" s="1" t="s">
@@ -1993,14 +2019,25 @@
       <c r="I87" s="9"/>
       <c r="J87" s="10"/>
     </row>
+    <row r="92" spans="2:10">
+      <c r="H92" s="67" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B10:D10"/>
@@ -2009,18 +2046,12 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="J24:J26"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
   <si>
     <t>column name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>test id</t>
-  </si>
-  <si>
     <t>content id</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>last login</t>
-  </si>
-  <si>
     <t>pk</t>
   </si>
   <si>
@@ -289,22 +283,41 @@
     <t>should we add student feedback to student log table</t>
   </si>
   <si>
-    <t>suggestion(inspector and contentdev can suggest)</t>
-  </si>
-  <si>
     <t>only student can request</t>
+  </si>
+  <si>
+    <t>sometimes he might give more than one feedback</t>
+  </si>
+  <si>
+    <t>primary key foreign key references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last login </t>
+  </si>
+  <si>
+    <t>suggestion(contentdev can suggest)</t>
+  </si>
+  <si>
+    <t>in future inspector can also suggest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,29 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,11 +548,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -569,48 +560,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +627,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,45 +646,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1003,18 +983,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="H2" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="H2" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1021,8 @@
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="61" t="s">
-        <v>21</v>
+      <c r="J4" s="46" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1053,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7" t="s">
@@ -1072,55 +1052,54 @@
         <v>7</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="H6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>3</v>
+      <c r="H6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="47"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>74</v>
+      <c r="B7" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:11">
       <c r="H8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="H9" s="29" t="s">
-        <v>86</v>
+      <c r="H9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="H10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="6"/>
+      <c r="B10" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
@@ -1132,13 +1111,6 @@
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="4" t="s">
@@ -1148,24 +1120,21 @@
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>8</v>
@@ -1174,24 +1143,24 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="H15" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="67" t="s">
-        <v>91</v>
+      <c r="H15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="41" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>8</v>
@@ -1209,7 +1178,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
@@ -1222,50 +1191,49 @@
         <v>5</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="10"/>
       <c r="H18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="24"/>
       <c r="H19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="21"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="H22" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-    </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="H23" s="44"/>
+      <c r="B23" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="H23" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
@@ -1277,36 +1245,36 @@
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="45" t="s">
+      <c r="E24" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="50" t="s">
         <v>72</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="60"/>
+        <v>9</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="16" t="s">
@@ -1317,136 +1285,136 @@
       </c>
       <c r="D26" s="6"/>
       <c r="H26" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="60"/>
+        <v>17</v>
+      </c>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6"/>
       <c r="H27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="6"/>
       <c r="H28" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="6"/>
       <c r="H29" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="6"/>
       <c r="H30" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="10"/>
       <c r="H31" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="H35" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="H35" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
+      <c r="B36" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="H36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,24 +1436,24 @@
         <v>2</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>4</v>
@@ -1504,23 +1472,23 @@
       </c>
       <c r="D39" s="6"/>
       <c r="H39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="H40" s="42" t="s">
-        <v>41</v>
+      <c r="H40" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>8</v>
@@ -1529,26 +1497,26 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="6"/>
       <c r="H41" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="10"/>
       <c r="H42" s="7"/>
@@ -1556,24 +1524,24 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>53</v>
+      <c r="B43" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="H45" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
+      <c r="B45" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="H45" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="1" t="s">
@@ -1597,22 +1565,22 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -1624,53 +1592,53 @@
       </c>
       <c r="D48" s="6"/>
       <c r="H48" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="27" t="s">
-        <v>23</v>
+      <c r="B49" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="44" t="s">
-        <v>59</v>
+      <c r="E49" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="27" t="s">
-        <v>62</v>
+      <c r="B50" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="H50" s="24"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="34"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="H53" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
+      <c r="H53" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
+      <c r="B54" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
       <c r="H54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,62 +1659,62 @@
       <c r="D55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="43" t="s">
-        <v>87</v>
+      <c r="H55" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="26"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="24"/>
+      <c r="B58" s="23"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="24"/>
+      <c r="B59" s="23"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="24"/>
-      <c r="H60" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="55"/>
-      <c r="J60" s="56"/>
+      <c r="B60" s="23"/>
+      <c r="H60" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="59"/>
+      <c r="J60" s="60"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="H61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,16 +1726,16 @@
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="50"/>
+      <c r="B62" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
       <c r="H62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="62" t="s">
-        <v>75</v>
+      <c r="J62" s="47" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:10">
@@ -1781,60 +1749,63 @@
         <v>2</v>
       </c>
       <c r="H63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="48"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="63"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>21</v>
+      <c r="D64" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:11">
       <c r="B65" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="10"/>
       <c r="H65" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65" s="10"/>
     </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="50"/>
-      <c r="H70" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="53"/>
-    </row>
-    <row r="71" spans="2:10">
+    <row r="70" spans="2:11">
+      <c r="B70" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="45"/>
+      <c r="H70" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="59"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,15 +1825,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="65" t="s">
-        <v>73</v>
+    <row r="72" spans="2:11">
+      <c r="B72" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="H72" s="16" t="s">
         <v>4</v>
@@ -1871,49 +1842,52 @@
         <v>5</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="65"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="51"/>
       <c r="H73" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:11">
       <c r="B74" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D74" s="10"/>
       <c r="H74" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I74" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J74" s="10"/>
     </row>
-    <row r="77" spans="2:10">
-      <c r="H77" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I77" s="52"/>
-      <c r="J77" s="53"/>
-    </row>
-    <row r="78" spans="2:10">
+    <row r="77" spans="2:11">
+      <c r="H77" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77" s="44"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
       <c r="H78" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,23 +1898,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="50"/>
-      <c r="H79" s="32" t="s">
+    <row r="79" spans="2:11">
+      <c r="B79" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
+      <c r="H79" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="J79" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,56 +1924,57 @@
       <c r="D80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="60"/>
+      <c r="H80" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="50"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="64" t="s">
-        <v>73</v>
+      <c r="D81" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="37" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="60"/>
+      <c r="B82" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="50"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>18</v>
+      <c r="B83" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D83" s="10"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="H85" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="I85" s="49"/>
-      <c r="J85" s="50"/>
+      <c r="H85" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" s="44"/>
+      <c r="J85" s="45"/>
     </row>
     <row r="86" spans="2:10">
       <c r="H86" s="1" t="s">
@@ -2014,18 +1989,37 @@
     </row>
     <row r="87" spans="2:10">
       <c r="H87" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="10"/>
     </row>
+    <row r="90" spans="2:10">
+      <c r="H90" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="92" spans="2:10">
-      <c r="H92" s="67" t="s">
-        <v>89</v>
+      <c r="H92" s="41" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="J24:J26"/>
     <mergeCell ref="H85:J85"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="J4:J5"/>
@@ -2038,20 +2032,6 @@
     <mergeCell ref="J79:J80"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
   <si>
     <t>column name</t>
   </si>
@@ -58,9 +58,6 @@
     <t>phone number</t>
   </si>
   <si>
-    <t>content table</t>
-  </si>
-  <si>
     <t>requests</t>
   </si>
   <si>
@@ -127,12 +124,6 @@
     <t>developer id</t>
   </si>
   <si>
-    <t>qualification document</t>
-  </si>
-  <si>
-    <t>admin aproved</t>
-  </si>
-  <si>
     <t>transaction number</t>
   </si>
   <si>
@@ -299,18 +290,57 @@
   </si>
   <si>
     <t>in future inspector can also suggest</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>developer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content </t>
+  </si>
+  <si>
+    <t>quali_doc</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>admin_aproved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,11 +578,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -560,78 +590,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -646,8 +646,50 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -983,18 +1025,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="H2" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="H2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,14 +1057,14 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>4</v>
+      <c r="H4" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -1033,40 +1075,42 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="56"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="6"/>
       <c r="H6" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="57"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="61" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="H7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>3</v>
@@ -1075,29 +1119,29 @@
     </row>
     <row r="8" spans="2:11">
       <c r="H8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:11">
       <c r="H9" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
@@ -1113,54 +1157,53 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="H15" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="41" t="s">
-        <v>88</v>
+      <c r="H15" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="40" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>8</v>
@@ -1177,63 +1220,73 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="H17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="H18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="24"/>
+      <c r="B19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="H19" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="21"/>
     </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="10"/>
+    </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="H23" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
+      <c r="B23" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="H23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
@@ -1245,28 +1298,28 @@
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>71</v>
+      <c r="E24" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>9</v>
@@ -1274,116 +1327,112 @@
       <c r="I25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="50"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="D26" s="6"/>
       <c r="H26" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="50"/>
+        <v>16</v>
+      </c>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6"/>
       <c r="H27" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="C28" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6"/>
       <c r="H28" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="6"/>
       <c r="H29" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="6"/>
       <c r="H30" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="10"/>
+      <c r="B31" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="H31" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>3</v>
-      </c>
+      <c r="C32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="H32" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>3</v>
@@ -1391,30 +1440,35 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>3</v>
-      </c>
+      <c r="B33" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="H35" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
+      <c r="H35" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
+      <c r="B36" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
       <c r="H36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,24 +1490,24 @@
         <v>2</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>20</v>
+      <c r="B38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>4</v>
@@ -1480,15 +1534,15 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="16" t="s">
-        <v>36</v>
+      <c r="B40" s="71" t="s">
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="H40" s="37" t="s">
-        <v>40</v>
+      <c r="H40" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>8</v>
@@ -1496,15 +1550,15 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="16" t="s">
-        <v>33</v>
+      <c r="B41" s="71" t="s">
+        <v>95</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="6"/>
       <c r="H41" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I41" s="23" t="s">
         <v>3</v>
@@ -1512,36 +1566,28 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>34</v>
+      <c r="B42" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="D42" s="10"/>
       <c r="H42" s="7"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="H45" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
+      <c r="B45" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="H45" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="1" t="s">
@@ -1565,22 +1611,22 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="35" t="s">
         <v>9</v>
       </c>
       <c r="I47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -1592,27 +1638,30 @@
       </c>
       <c r="D48" s="6"/>
       <c r="H48" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="39" t="s">
-        <v>58</v>
+      <c r="E49" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="H49" s="17"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D50" s="6"/>
       <c r="H50" s="23"/>
@@ -1627,18 +1676,18 @@
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="H53" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
+      <c r="H53" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="55"/>
+      <c r="J53" s="56"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
       <c r="H54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,24 +1709,24 @@
         <v>2</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="38" t="s">
-        <v>85</v>
+      <c r="J55" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>9</v>
@@ -1689,7 +1738,7 @@
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>8</v>
@@ -1707,11 +1756,11 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="23"/>
-      <c r="H60" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I60" s="59"/>
-      <c r="J60" s="60"/>
+      <c r="H60" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="58"/>
+      <c r="J60" s="59"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="23"/>
@@ -1726,16 +1775,19 @@
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
-      <c r="H62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="47" t="s">
-        <v>74</v>
+      <c r="B62" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="56"/>
+      <c r="H62" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="65" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:10">
@@ -1754,20 +1806,20 @@
       <c r="I63" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="48"/>
+      <c r="J63" s="66"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>3</v>
@@ -1776,7 +1828,7 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>3</v>
@@ -1786,23 +1838,23 @@
         <v>11</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J65" s="10"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45"/>
-      <c r="H70" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I70" s="59"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="62" t="s">
-        <v>93</v>
+      <c r="B70" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="H70" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70" s="58"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="43" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -1832,45 +1884,45 @@
       <c r="C72" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>4</v>
+      <c r="D72" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>92</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="69"/>
       <c r="H73" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D74" s="10"/>
       <c r="H74" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I74" s="25" t="s">
         <v>3</v>
@@ -1878,13 +1930,13 @@
       <c r="J74" s="10"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="H77" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="I77" s="44"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="41" t="s">
-        <v>89</v>
+      <c r="H77" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" s="55"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -1899,19 +1951,19 @@
       </c>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="45"/>
-      <c r="H79" s="28" t="s">
-        <v>4</v>
+      <c r="B79" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="H79" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" s="49" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="J79" s="68" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -1930,23 +1982,23 @@
       <c r="I80" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="50"/>
+      <c r="J80" s="63"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="49" t="s">
-        <v>72</v>
+      <c r="D81" s="67" t="s">
+        <v>69</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I81" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J81" s="10"/>
     </row>
@@ -1957,24 +2009,24 @@
       <c r="C82" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="50"/>
+      <c r="D82" s="63"/>
       <c r="H82" s="24"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" s="10"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="H85" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I85" s="44"/>
-      <c r="J85" s="45"/>
+      <c r="H85" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I85" s="55"/>
+      <c r="J85" s="56"/>
     </row>
     <row r="86" spans="2:10">
       <c r="H86" s="1" t="s">
@@ -1989,37 +2041,25 @@
     </row>
     <row r="87" spans="2:10">
       <c r="H87" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
+      <c r="J87" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="H90" s="41" t="s">
+      <c r="H90" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="H92" s="40" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="H92" s="41" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="J24:J26"/>
     <mergeCell ref="H85:J85"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="J4:J5"/>
@@ -2032,6 +2072,20 @@
     <mergeCell ref="J79:J80"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/project tables.xlsx
+++ b/project tables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
   <si>
     <t>column name</t>
   </si>
@@ -115,18 +115,12 @@
     <t>content name</t>
   </si>
   <si>
-    <t>area of expertise</t>
-  </si>
-  <si>
     <t>char(1)</t>
   </si>
   <si>
     <t>developer id</t>
   </si>
   <si>
-    <t>transaction number</t>
-  </si>
-  <si>
     <t>request</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>gold silver bronze</t>
-  </si>
-  <si>
     <t>suggestion</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>content length</t>
   </si>
   <si>
-    <t>student feedback</t>
-  </si>
-  <si>
     <t>paid</t>
   </si>
   <si>
@@ -308,18 +296,40 @@
   </si>
   <si>
     <t>admin_aproved</t>
+  </si>
+  <si>
+    <t>trans_num</t>
+  </si>
+  <si>
+    <t>smallint (gold silver bronze)</t>
+  </si>
+  <si>
+    <t>stud_feedback</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>login_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,11 +588,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -590,52 +600,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,25 +677,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,23 +692,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1025,18 +1036,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,12 +1069,12 @@
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="67" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1074,17 +1085,14 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="52"/>
+      <c r="I5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="4" t="s">
@@ -1095,53 +1103,59 @@
       </c>
       <c r="D6" s="6"/>
       <c r="H6" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="44" t="s">
-        <v>81</v>
+      <c r="B7" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:11">
+      <c r="B8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:11">
       <c r="H9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="H10" s="41"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
@@ -1158,21 +1172,21 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="15" t="s">
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1192,13 +1206,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="H15" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="40" t="s">
-        <v>85</v>
+      <c r="H15" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1228,7 +1242,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="H17" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>3</v>
@@ -1254,39 +1268,39 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="6"/>
       <c r="H19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="45"/>
+      <c r="B20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="44"/>
       <c r="D20" s="10"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="H23" s="57" t="s">
+      <c r="B23" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="H23" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
@@ -1298,17 +1312,17 @@
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>68</v>
+      <c r="E24" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="63" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1324,21 +1338,21 @@
       <c r="H25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="63"/>
+      <c r="I25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="16"/>
       <c r="D26" s="6"/>
       <c r="H26" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="16" t="s">
@@ -1349,126 +1363,126 @@
       </c>
       <c r="D27" s="6"/>
       <c r="H27" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="B28" s="71" t="s">
-        <v>48</v>
+      <c r="B28" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6"/>
       <c r="H28" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="6"/>
       <c r="H29" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="A30" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="6"/>
       <c r="H30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="6"/>
       <c r="H31" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="6"/>
       <c r="H32" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="24" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="47" t="s">
+      <c r="B33" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="46" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>49</v>
+      <c r="B34" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="59"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
       <c r="H36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,8 +1503,8 @@
       <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>35</v>
+      <c r="H37" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>5</v>
@@ -1501,12 +1515,12 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="16" t="s">
@@ -1528,21 +1542,21 @@
       <c r="H39" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="22" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="71" t="s">
-        <v>94</v>
+      <c r="B40" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="H40" s="36" t="s">
-        <v>37</v>
+      <c r="H40" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>8</v>
@@ -1550,27 +1564,27 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="71" t="s">
-        <v>95</v>
+      <c r="B41" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="6"/>
       <c r="H41" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>49</v>
+      <c r="B42" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="D42" s="10"/>
       <c r="H42" s="7"/>
@@ -1578,16 +1592,16 @@
       <c r="J42" s="10"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
-      <c r="H45" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="H45" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="1" t="s">
@@ -1619,13 +1633,13 @@
       <c r="D47" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="27" t="s">
+      <c r="I47" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1637,57 +1651,59 @@
         <v>5</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="H48" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="9"/>
+      <c r="H48" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="26" t="s">
-        <v>58</v>
-      </c>
       <c r="C50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="H50" s="23"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4"/>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="29"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="H53" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" s="55"/>
-      <c r="J53" s="56"/>
+      <c r="H53" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="58"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
+      <c r="B54" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
       <c r="H54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,62 +1724,62 @@
       <c r="D55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>82</v>
+      <c r="H55" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="22" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="25"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="24"/>
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="23"/>
+      <c r="B58" s="22"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="23"/>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="23"/>
-      <c r="H60" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I60" s="58"/>
-      <c r="J60" s="59"/>
+      <c r="B60" s="22"/>
+      <c r="H60" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="61"/>
+      <c r="J60" s="62"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="23"/>
+      <c r="B61" s="22"/>
       <c r="H61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1775,19 +1791,19 @@
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="58"/>
+      <c r="D62" s="59"/>
       <c r="H62" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="65" t="s">
-        <v>71</v>
+      <c r="J62" s="68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="2:10">
@@ -1803,23 +1819,23 @@
       <c r="H63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="66"/>
+      <c r="I63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>3</v>
@@ -1827,34 +1843,34 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="25" t="s">
+      <c r="B65" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="10"/>
       <c r="H65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="20" t="s">
-        <v>50</v>
+      <c r="I65" s="54" t="s">
+        <v>94</v>
       </c>
       <c r="J65" s="10"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="56"/>
-      <c r="H70" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="58"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="43" t="s">
-        <v>90</v>
+      <c r="B70" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59"/>
+      <c r="H70" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="61"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="42" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -1878,17 +1894,17 @@
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H72" s="51" t="s">
-        <v>92</v>
+      <c r="C72" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>3</v>
@@ -1898,15 +1914,15 @@
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="69"/>
+      <c r="B73" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="72"/>
       <c r="H73" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>16</v>
@@ -1914,29 +1930,29 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>49</v>
+      <c r="B74" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="D74" s="10"/>
       <c r="H74" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I74" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" s="24" t="s">
         <v>3</v>
       </c>
       <c r="J74" s="10"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="H77" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="I77" s="55"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="40" t="s">
-        <v>86</v>
+      <c r="H77" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I77" s="58"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -1951,19 +1967,19 @@
       </c>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
+      <c r="B79" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59"/>
       <c r="H79" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J79" s="68" t="s">
-        <v>69</v>
+      <c r="J79" s="71" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -1976,13 +1992,13 @@
       <c r="D80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H80" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I80" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="63"/>
+      <c r="I80" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="66"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
@@ -1991,42 +2007,42 @@
       <c r="C81" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="67" t="s">
-        <v>69</v>
+      <c r="D81" s="70" t="s">
+        <v>66</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I81" s="32" t="s">
+      <c r="I81" s="31" t="s">
         <v>16</v>
       </c>
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="63"/>
-      <c r="H82" s="24"/>
+      <c r="C82" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="66"/>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="10"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="H85" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="I85" s="55"/>
-      <c r="J85" s="56"/>
+      <c r="H85" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85" s="58"/>
+      <c r="J85" s="59"/>
     </row>
     <row r="86" spans="2:10">
       <c r="H86" s="1" t="s">
@@ -2041,21 +2057,23 @@
     </row>
     <row r="87" spans="2:10">
       <c r="H87" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I87" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="J87" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="H90" s="40" t="s">
-        <v>84</v>
+      <c r="H90" s="39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="H92" s="40" t="s">
-        <v>87</v>
+      <c r="H92" s="39" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
